--- a/src/P07_af_all/T06_ml_auto_optuna_center/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T06_ml_auto_optuna_center/S03_calculate_performance.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9239320605033657</v>
+        <v>0.237222799174243</v>
       </c>
       <c r="F2" t="n">
-        <v>1.247622379983588</v>
+        <v>0.9189448400999752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9904831103404877</v>
+        <v>1.235790627799507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9664447035807618</v>
+        <v>1.736199298261986</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07606793949663393</v>
+        <v>0.7627772008257568</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02402818247988714</v>
+        <v>0.2811412490012398</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.966714309828827</v>
+        <v>0.3654972269426723</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8357053586365422</v>
+        <v>0.9269539738254284</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9629061395597349</v>
+        <v>1.024048530077287</v>
       </c>
       <c r="H3" t="n">
-        <v>1.451527042968292</v>
+        <v>4.588296191545842</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03328569017117278</v>
+        <v>0.6345027730573276</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01912204674831708</v>
+        <v>-0.130397479546746</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9009612668126434</v>
+        <v>0.1465930925768162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7736338501406671</v>
+        <v>0.4679386063219644</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9322496137957</v>
+        <v>0.7601034991506472</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9189539817562167</v>
+        <v>1.153686737349036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0990387331873569</v>
+        <v>0.8534069074231838</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0930354923070208</v>
+        <v>0.4514152817432026</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9305358790482788</v>
+        <v>0.2497710395645772</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9523205295869323</v>
+        <v>0.7712791400824561</v>
       </c>
       <c r="G5" t="n">
-        <v>0.961879621231974</v>
+        <v>1.00664755234248</v>
       </c>
       <c r="H5" t="n">
-        <v>1.112308576101757</v>
+        <v>2.492727409052288</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06946412095172105</v>
+        <v>0.7502289604354226</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03264720934619666</v>
+        <v>0.2007196837325652</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9376671420446839</v>
+        <v>0.4988704846767643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9226275842494789</v>
+        <v>0.597219701826475</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9505215073405578</v>
+        <v>1.68869701313014</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9976177434384894</v>
+        <v>1.743463026684933</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06233285795531607</v>
+        <v>0.5011295153232357</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.05743746099845248</v>
+        <v>0.3155174461087036</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9622034314946588</v>
+        <v>0.6764875792261283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8970346279275657</v>
+        <v>0.9833043311722595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9885149420385454</v>
+        <v>1.743027182892804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9874338077793894</v>
+        <v>1.621096991022213</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03779656850534163</v>
+        <v>0.3235124207738719</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.002764534165660137</v>
+        <v>-0.0992025044440612</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9204150169292183</v>
+        <v>0.3711039093957503</v>
       </c>
       <c r="F8" t="n">
-        <v>1.159416035272184</v>
+        <v>0.586374448261794</v>
       </c>
       <c r="G8" t="n">
-        <v>1.160313587391634</v>
+        <v>1.67408694837712</v>
       </c>
       <c r="H8" t="n">
-        <v>1.182183818528471</v>
+        <v>1.318774205597547</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07958498307078121</v>
+        <v>0.6288960906042496</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.050323799049385</v>
+        <v>0.4687989303000885</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9400951968228536</v>
+        <v>0.5154873244328809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9930260824830762</v>
+        <v>0.7222994937535095</v>
       </c>
       <c r="G9" t="n">
-        <v>1.033116678923579</v>
+        <v>1.701937048133354</v>
       </c>
       <c r="H9" t="n">
-        <v>1.055745123248784</v>
+        <v>1.56111140776823</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05990480317714612</v>
+        <v>0.484512675567119</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.03684193140449973</v>
+        <v>0.22837129065491</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9227919909296708</v>
+        <v>0.3573930694716017</v>
       </c>
       <c r="F10" t="n">
-        <v>1.083967757353516</v>
+        <v>0.9800723682019757</v>
       </c>
       <c r="G10" t="n">
-        <v>0.953925361229306</v>
+        <v>1.259860388006491</v>
       </c>
       <c r="H10" t="n">
-        <v>1.002563334577172</v>
+        <v>2.384504978480115</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07720800907032865</v>
+        <v>0.6426069305283981</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03671881884556183</v>
+        <v>0.1290467248182821</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9633704376807093</v>
+        <v>0.5724131373106305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9121404312149368</v>
+        <v>0.9943185869319333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9889573939243551</v>
+        <v>2.424409982835007</v>
       </c>
       <c r="H11" t="n">
-        <v>1.088998507926915</v>
+        <v>4.392014591066046</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03662956231929027</v>
+        <v>0.4275868626893693</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01020122781266997</v>
+        <v>-0.07897345937991584</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.903278208878193</v>
+        <v>0.2982831779753365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6627455186871134</v>
+        <v>0.4242898087628128</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9716820897192964</v>
+        <v>1.187707745684237</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8865268461501079</v>
+        <v>1.1099189299389</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09672179112180668</v>
+        <v>0.7017168220246633</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09750029649156089</v>
+        <v>0.4222195159181896</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9298135458295246</v>
+        <v>0.4093631282525227</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8862845690851887</v>
+        <v>0.7995602546322406</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9715216149576523</v>
+        <v>1.623992705508579</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9926962295513985</v>
+        <v>2.628812833161687</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07018645417047535</v>
+        <v>0.5906368717474771</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04814011438326441</v>
+        <v>0.157430927118852</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9319711995231151</v>
+        <v>0.4955113861663332</v>
       </c>
       <c r="F14" t="n">
-        <v>1.093681705432788</v>
+        <v>0.7867534734220549</v>
       </c>
       <c r="G14" t="n">
-        <v>0.924583092664394</v>
+        <v>1.089179152807869</v>
       </c>
       <c r="H14" t="n">
-        <v>1.236508809938458</v>
+        <v>3.686356168834195</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06802880047688464</v>
+        <v>0.5044886138336666</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03297917011927154</v>
+        <v>0.3043615953335551</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9686509598963029</v>
+        <v>0.6664557259086574</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9873170872675187</v>
+        <v>0.9594869044448474</v>
       </c>
       <c r="G15" t="n">
-        <v>1.093487243183523</v>
+        <v>2.707491813978053</v>
       </c>
       <c r="H15" t="n">
-        <v>1.008382081417359</v>
+        <v>1.150410540771339</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03134904010369655</v>
+        <v>0.3335442740913421</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009496324808175638</v>
+        <v>0.03741633016674517</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.9042242374689632</v>
+        <v>0.3456767042714485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7698650567610273</v>
+        <v>0.4726424024686365</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9069558675236857</v>
+        <v>1.04650505941979</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9778622835326867</v>
+        <v>1.152612885328192</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09577576253103759</v>
+        <v>0.6543232957285519</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08824016525658507</v>
+        <v>0.4402442934862273</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.934948798962794</v>
+        <v>0.5025479387821464</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9502879498204447</v>
+        <v>0.7396275934451797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9750087344572007</v>
+        <v>1.614392008735238</v>
       </c>
       <c r="H17" t="n">
-        <v>1.074251058296168</v>
+        <v>1.996459864977909</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06505120103720548</v>
+        <v>0.4974520612178532</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04357188672801049</v>
+        <v>0.260674072995509</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9203640909778685</v>
+        <v>0.3606929925348348</v>
       </c>
       <c r="F18" t="n">
-        <v>1.123771328289393</v>
+        <v>0.9610790444027816</v>
       </c>
       <c r="G18" t="n">
-        <v>4.992426355140453</v>
+        <v>39.20950324663149</v>
       </c>
       <c r="H18" t="n">
-        <v>0.961992017962367</v>
+        <v>1.571681519163091</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07963590902213058</v>
+        <v>0.6393070074651648</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03638037743639599</v>
+        <v>0.175886941847029</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9565985825430753</v>
+        <v>0.5863167938665474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7911191966198641</v>
+        <v>0.9726047512955595</v>
       </c>
       <c r="G19" t="n">
-        <v>0.941065830615316</v>
+        <v>1.423569349472762</v>
       </c>
       <c r="H19" t="n">
-        <v>1.144128971679715</v>
+        <v>3.16779292063764</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0434014174569245</v>
+        <v>0.4136832061334524</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.03330853329154149</v>
+        <v>-0.270353182336575</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8998095847303506</v>
+        <v>0.3008617732409248</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8743687328059532</v>
+        <v>0.5023272652033608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9167480573212021</v>
+        <v>1.180869914291796</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9685553105593381</v>
+        <v>1.212884731763456</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1001904152696509</v>
+        <v>0.6991382267590757</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08005770921046262</v>
+        <v>0.4714905991729021</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.9255907527504318</v>
+        <v>0.4159571865474357</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9297530859050699</v>
+        <v>0.8120036869672337</v>
       </c>
       <c r="G21" t="n">
-        <v>2.283413414358991</v>
+        <v>13.93798083679869</v>
       </c>
       <c r="H21" t="n">
-        <v>1.02489210006714</v>
+        <v>1.984119723854729</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07440924724956854</v>
+        <v>0.5840428134525644</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02770985111843886</v>
+        <v>0.1256747862277852</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5291305129872168</v>
+        <v>0.4551507989580456</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9094459894247893</v>
+        <v>0.9715049999997875</v>
       </c>
       <c r="G22" t="n">
-        <v>1.733882723209287</v>
+        <v>1.958223858736609</v>
       </c>
       <c r="H22" t="n">
-        <v>1.491350888674403</v>
+        <v>1.863019591238757</v>
       </c>
       <c r="I22" t="n">
-        <v>0.470869487012783</v>
+        <v>0.5448492010419542</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2885718712043582</v>
+        <v>0.240025254602965</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.723161276882117</v>
+        <v>0.6487757085410866</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8784087907640383</v>
+        <v>0.9055897970061082</v>
       </c>
       <c r="G23" t="n">
-        <v>1.209875848228473</v>
+        <v>1.352238165480069</v>
       </c>
       <c r="H23" t="n">
-        <v>4.119863344909105</v>
+        <v>4.48680342756215</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2768387231178829</v>
+        <v>0.3512242914589132</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.07119782764788551</v>
+        <v>-0.1043443935132653</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3888348941846014</v>
+        <v>0.3136726704959943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4943790141670914</v>
+        <v>0.5110139911325937</v>
       </c>
       <c r="G24" t="n">
-        <v>1.168402350246316</v>
+        <v>1.179087642518431</v>
       </c>
       <c r="H24" t="n">
-        <v>1.298705062351162</v>
+        <v>1.396566353245068</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6111651058153988</v>
+        <v>0.6863273295040058</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4204180451562863</v>
+        <v>0.4009161403582251</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5470422280179783</v>
+        <v>0.4725330593317087</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7607445981186395</v>
+        <v>0.7960362627128298</v>
       </c>
       <c r="G25" t="n">
-        <v>1.370720307228025</v>
+        <v>1.49651655557837</v>
       </c>
       <c r="H25" t="n">
-        <v>2.303306431978223</v>
+        <v>2.582129790681992</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4529577719820215</v>
+        <v>0.5274669406682911</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2125973629042529</v>
+        <v>0.1788656671493081</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.6429733290257055</v>
+        <v>0.4262774484348953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6677738041678631</v>
+        <v>0.6323737751776504</v>
       </c>
       <c r="G26" t="n">
-        <v>1.464339184893943</v>
+        <v>1.474575872723667</v>
       </c>
       <c r="H26" t="n">
-        <v>1.46330867398791</v>
+        <v>1.803217635280685</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3570266709742945</v>
+        <v>0.5737225515651048</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2346543198413571</v>
+        <v>0.2752268297182786</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7830054307903449</v>
+        <v>0.6068991541334581</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9439803373684312</v>
+        <v>1.039174651749637</v>
       </c>
       <c r="G27" t="n">
-        <v>1.525390706463987</v>
+        <v>1.783803716023701</v>
       </c>
       <c r="H27" t="n">
-        <v>1.427862671624393</v>
+        <v>1.748433340559826</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2169945692096555</v>
+        <v>0.3931008458665421</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0552435477878046</v>
+        <v>-0.1616580376455996</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.4963728212864501</v>
+        <v>0.3241416229741054</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6965483464540835</v>
+        <v>0.6402489101443967</v>
       </c>
       <c r="G28" t="n">
-        <v>1.516604595109109</v>
+        <v>1.465631031785974</v>
       </c>
       <c r="H28" t="n">
-        <v>1.246307278088853</v>
+        <v>1.505968614097116</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5036271787135497</v>
+        <v>0.6758583770258945</v>
       </c>
       <c r="J28" t="n">
-        <v>0.368991558498266</v>
+        <v>0.4199936457820141</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.6407838603675003</v>
+        <v>0.4524394085141527</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7694341626634591</v>
+        <v>0.7705991123572281</v>
       </c>
       <c r="G29" t="n">
-        <v>1.502111495489013</v>
+        <v>1.574670206844447</v>
       </c>
       <c r="H29" t="n">
-        <v>1.379159541233719</v>
+        <v>1.685873196645876</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3592161396324995</v>
+        <v>0.5475605914858472</v>
       </c>
       <c r="J29" t="n">
-        <v>0.182800776850606</v>
+        <v>0.177854145951564</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5183449003801247</v>
+        <v>0.4362454022439778</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9003931879242261</v>
+        <v>0.9566282380788117</v>
       </c>
       <c r="G30" t="n">
-        <v>1.24045211823427</v>
+        <v>1.325571857305976</v>
       </c>
       <c r="H30" t="n">
-        <v>2.113352831634564</v>
+        <v>2.359185361681199</v>
       </c>
       <c r="I30" t="n">
-        <v>0.481655099619875</v>
+        <v>0.5637545977560219</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1998546011325739</v>
+        <v>0.1498806372690697</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.7679172328053248</v>
+        <v>0.6725587938608708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9131741340093127</v>
+        <v>0.9377887648530159</v>
       </c>
       <c r="G31" t="n">
-        <v>1.331473763030493</v>
+        <v>2.1594390694146</v>
       </c>
       <c r="H31" t="n">
-        <v>2.942987661141781</v>
+        <v>3.621069615914724</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2320827671946749</v>
+        <v>0.3274412061391289</v>
       </c>
       <c r="J31" t="n">
-        <v>0.009079517030354367</v>
+        <v>-0.01763076852785805</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.4390503220011072</v>
+        <v>0.3374555700372137</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4237002631093506</v>
+        <v>0.4021131896218871</v>
       </c>
       <c r="G32" t="n">
-        <v>1.184848603086839</v>
+        <v>1.216113609763017</v>
       </c>
       <c r="H32" t="n">
-        <v>1.065634670484501</v>
+        <v>1.141009619765741</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5609496779988926</v>
+        <v>0.6625444299627861</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4230223350432565</v>
+        <v>0.4524187275841594</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5751041517288522</v>
+        <v>0.4820865887140209</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7457558616809631</v>
+        <v>0.7655100641845717</v>
       </c>
       <c r="G33" t="n">
-        <v>1.252258161450534</v>
+        <v>1.567041512161198</v>
       </c>
       <c r="H33" t="n">
-        <v>2.040658387753615</v>
+        <v>2.373754865787221</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4248958482711478</v>
+        <v>0.5179134112859791</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2106521510687283</v>
+        <v>0.1948895321084571</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6082776049688953</v>
+        <v>0.519322035019643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7906751801474619</v>
+        <v>0.7680304692437058</v>
       </c>
       <c r="G34" t="n">
-        <v>1.082818987297057</v>
+        <v>1.209121953674502</v>
       </c>
       <c r="H34" t="n">
-        <v>3.585002480400766</v>
+        <v>3.948507973791311</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3917223950311046</v>
+        <v>0.4806779649803569</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3008940671913969</v>
+        <v>0.3209162610543673</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8115486404247291</v>
+        <v>0.7132085066029991</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9460415381324843</v>
+        <v>0.9201574521010432</v>
       </c>
       <c r="G35" t="n">
-        <v>2.053593169907753</v>
+        <v>3.137676408552589</v>
       </c>
       <c r="H35" t="n">
-        <v>1.059670507367271</v>
+        <v>1.132504337587674</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1884513595752704</v>
+        <v>0.2867914933970005</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05090509169882174</v>
+        <v>0.07687271919535366</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.4634939018378821</v>
+        <v>0.3611354750989211</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5054882590990338</v>
+        <v>0.476180370458931</v>
       </c>
       <c r="G36" t="n">
-        <v>1.055807377522082</v>
+        <v>1.158713816670107</v>
       </c>
       <c r="H36" t="n">
-        <v>1.146368724373767</v>
+        <v>1.175010715615168</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5365060981621183</v>
+        <v>0.6388645249010791</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4013445765159155</v>
+        <v>0.4360542382527427</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6277733824105023</v>
+        <v>0.5312220055738542</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7474016591263265</v>
+        <v>0.7214560972678932</v>
       </c>
       <c r="G37" t="n">
-        <v>1.39740651157563</v>
+        <v>1.835170726299065</v>
       </c>
       <c r="H37" t="n">
-        <v>1.930347237380601</v>
+        <v>2.085341008998051</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3722266175894972</v>
+        <v>0.4687779944261454</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2510479118020447</v>
+        <v>0.2779477395008213</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.551465578517822</v>
+        <v>0.4000805675677986</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9277761378266932</v>
+        <v>0.9570793712105878</v>
       </c>
       <c r="G38" t="n">
-        <v>37.18004564329298</v>
+        <v>42.05959419244002</v>
       </c>
       <c r="H38" t="n">
-        <v>1.320495560831269</v>
+        <v>1.564380555577732</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4485344214821776</v>
+        <v>0.599919432432201</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2044437607097871</v>
+        <v>0.1793166107439088</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.7702366628512123</v>
+        <v>0.6200500437995273</v>
       </c>
       <c r="F39" t="n">
-        <v>0.906474037227724</v>
+        <v>0.9296594468457089</v>
       </c>
       <c r="G39" t="n">
-        <v>1.357222447555963</v>
+        <v>1.297880685536861</v>
       </c>
       <c r="H39" t="n">
-        <v>2.324446720071845</v>
+        <v>3.013778743376658</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2297633371487876</v>
+        <v>0.3799499562004726</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1839775369838661</v>
+        <v>-0.2142608137751325</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.474700871949751</v>
+        <v>0.3134046183374746</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5440871676095417</v>
+        <v>0.4677956751493855</v>
       </c>
       <c r="G40" t="n">
-        <v>1.260507425462444</v>
+        <v>1.16054448351748</v>
       </c>
       <c r="H40" t="n">
-        <v>1.136770484848073</v>
+        <v>1.124382435712953</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5252991280502497</v>
+        <v>0.6865953816625259</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4275541009413084</v>
+        <v>0.5078220333458909</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.5988010377729287</v>
+        <v>0.4445117432349335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7927791142213199</v>
+        <v>0.7848448310685608</v>
       </c>
       <c r="G41" t="n">
-        <v>13.26592517210381</v>
+        <v>14.83933978716479</v>
       </c>
       <c r="H41" t="n">
-        <v>1.593904255250396</v>
+        <v>1.900847244889114</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4011989622270714</v>
+        <v>0.5554882567650665</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1493401082224092</v>
+        <v>0.1576259434382221</v>
       </c>
     </row>
   </sheetData>

--- a/src/P07_af_all/T06_ml_auto_optuna_center/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T06_ml_auto_optuna_center/S03_calculate_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.237222799174243</v>
+        <v>0.658588657150055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9189448400999752</v>
+        <v>1.031839493288924</v>
       </c>
       <c r="G2" t="n">
-        <v>1.235790627799507</v>
+        <v>1.799165520098514</v>
       </c>
       <c r="H2" t="n">
-        <v>1.736199298261986</v>
+        <v>1.96798717794936</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7627772008257568</v>
+        <v>0.3414113428499447</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2811412490012398</v>
+        <v>0.1928276682024003</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3654972269426723</v>
+        <v>0.8513879931674416</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9269539738254284</v>
+        <v>0.819047895425655</v>
       </c>
       <c r="G3" t="n">
-        <v>1.024048530077287</v>
+        <v>1.314083474115188</v>
       </c>
       <c r="H3" t="n">
-        <v>4.588296191545842</v>
+        <v>4.557088863269721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6345027730573276</v>
+        <v>0.1486120068325582</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.130397479546746</v>
+        <v>0.001191318274028075</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1465930925768162</v>
+        <v>0.5922445409065222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4679386063219644</v>
+        <v>0.568976953785623</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7601034991506472</v>
+        <v>1.432727227065222</v>
       </c>
       <c r="H4" t="n">
-        <v>1.153686737349036</v>
+        <v>1.401738400987683</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8534069074231838</v>
+        <v>0.407755459093478</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4514152817432026</v>
+        <v>0.3329636459353499</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2497710395645772</v>
+        <v>0.7007403970746729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7712791400824561</v>
+        <v>0.8066214475000671</v>
       </c>
       <c r="G5" t="n">
-        <v>1.00664755234248</v>
+        <v>1.515325407092975</v>
       </c>
       <c r="H5" t="n">
-        <v>2.492727409052288</v>
+        <v>2.642271480735589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7502289604354226</v>
+        <v>0.2992596029253268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2007196837325652</v>
+        <v>0.1756608774705926</v>
       </c>
     </row>
     <row r="6">
@@ -638,7 +638,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4988704846767643</v>
+        <v>0.7111690087006564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.597219701826475</v>
+        <v>0.7077821576185694</v>
       </c>
       <c r="G6" t="n">
-        <v>1.68869701313014</v>
+        <v>1.649144958850988</v>
       </c>
       <c r="H6" t="n">
-        <v>1.743463026684933</v>
+        <v>1.969196915029392</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5011295153232357</v>
+        <v>0.2888309912993436</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3155174461087036</v>
+        <v>0.1888001394397836</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6764875792261283</v>
+        <v>0.8662823426994398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9833043311722595</v>
+        <v>0.8769377411497102</v>
       </c>
       <c r="G7" t="n">
-        <v>1.743027182892804</v>
+        <v>1.507490410387667</v>
       </c>
       <c r="H7" t="n">
-        <v>1.621096991022213</v>
+        <v>1.179800846529922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3235124207738719</v>
+        <v>0.1337176573005606</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0992025044440612</v>
+        <v>0.01970109277957244</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +710,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3711039093957503</v>
+        <v>0.6282530625564835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.586374448261794</v>
+        <v>0.799391097329738</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67408694837712</v>
+        <v>1.867522146662022</v>
       </c>
       <c r="H8" t="n">
-        <v>1.318774205597547</v>
+        <v>1.478106622367079</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6288960906042496</v>
+        <v>0.3717469374435163</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4687989303000885</v>
+        <v>0.2758255287744761</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5154873244328809</v>
+        <v>0.7352348046521934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7222994937535095</v>
+        <v>0.7947036653660057</v>
       </c>
       <c r="G9" t="n">
-        <v>1.701937048133354</v>
+        <v>1.674719171966893</v>
       </c>
       <c r="H9" t="n">
-        <v>1.56111140776823</v>
+        <v>1.542368127975465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.484512675567119</v>
+        <v>0.2647651953478066</v>
       </c>
       <c r="J9" t="n">
-        <v>0.22837129065491</v>
+        <v>0.1614422536646107</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3573930694716017</v>
+        <v>0.6825063268954813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9800723682019757</v>
+        <v>0.9212079690107613</v>
       </c>
       <c r="G10" t="n">
-        <v>1.259860388006491</v>
+        <v>1.218678547964568</v>
       </c>
       <c r="H10" t="n">
-        <v>2.384504978480115</v>
+        <v>1.715486639471554</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6426069305283981</v>
+        <v>0.3174936731045183</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1290467248182821</v>
+        <v>0.1813572918035018</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +818,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5724131373106305</v>
+        <v>0.9066908132033641</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9943185869319333</v>
+        <v>0.8247219968477657</v>
       </c>
       <c r="G11" t="n">
-        <v>2.424409982835007</v>
+        <v>1.535309438946549</v>
       </c>
       <c r="H11" t="n">
-        <v>4.392014591066046</v>
+        <v>1.90275199750081</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4275868626893693</v>
+        <v>0.09330918679663547</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.07897345937991584</v>
+        <v>0.1050623435379255</v>
       </c>
     </row>
     <row r="12">
@@ -854,7 +854,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2982831779753365</v>
+        <v>0.6428770820254365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4242898087628128</v>
+        <v>0.456568409429186</v>
       </c>
       <c r="G12" t="n">
-        <v>1.187707745684237</v>
+        <v>1.47784723338152</v>
       </c>
       <c r="H12" t="n">
-        <v>1.1099189299389</v>
+        <v>1.174077240894376</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7017168220246633</v>
+        <v>0.3571229179745633</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4222195159181896</v>
+        <v>0.3782638395542394</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4093631282525227</v>
+        <v>0.7440247407080939</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7995602546322406</v>
+        <v>0.7341661250959043</v>
       </c>
       <c r="G13" t="n">
-        <v>1.623992705508579</v>
+        <v>1.410611740097546</v>
       </c>
       <c r="H13" t="n">
-        <v>2.628812833161687</v>
+        <v>1.59743862595558</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5906368717474771</v>
+        <v>0.2559752592919062</v>
       </c>
       <c r="J13" t="n">
-        <v>0.157430927118852</v>
+        <v>0.2215611582985557</v>
       </c>
     </row>
     <row r="14">
@@ -926,7 +926,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.4955113861663332</v>
+        <v>0.7241851760313481</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7867534734220549</v>
+        <v>0.815428971911955</v>
       </c>
       <c r="G14" t="n">
-        <v>1.089179152807869</v>
+        <v>1.311064048746396</v>
       </c>
       <c r="H14" t="n">
-        <v>3.686356168834195</v>
+        <v>1.62434427190121</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5044886138336666</v>
+        <v>0.2758148239686518</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3043615953335551</v>
+        <v>0.279007048202337</v>
       </c>
     </row>
     <row r="15">
@@ -962,7 +962,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6664557259086574</v>
+        <v>0.8919655444752592</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9594869044448474</v>
+        <v>0.9315379674885996</v>
       </c>
       <c r="G15" t="n">
-        <v>2.707491813978053</v>
+        <v>2.046402853686399</v>
       </c>
       <c r="H15" t="n">
-        <v>1.150410540771339</v>
+        <v>1.083986800054252</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3335442740913421</v>
+        <v>0.1080344555247402</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03741633016674517</v>
+        <v>0.06545547294050635</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3456767042714485</v>
+        <v>0.5825463899881093</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4726424024686365</v>
+        <v>0.6363286416408181</v>
       </c>
       <c r="G16" t="n">
-        <v>1.04650505941979</v>
+        <v>1.424980099596633</v>
       </c>
       <c r="H16" t="n">
-        <v>1.152612885328192</v>
+        <v>1.276583173800023</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6543232957285519</v>
+        <v>0.4174536100118912</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4402442934862273</v>
+        <v>0.2463888417200542</v>
       </c>
     </row>
     <row r="17">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5025479387821464</v>
+        <v>0.7328990368315719</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7396275934451797</v>
+        <v>0.7944318603471245</v>
       </c>
       <c r="G17" t="n">
-        <v>1.614392008735238</v>
+        <v>1.594149000676475</v>
       </c>
       <c r="H17" t="n">
-        <v>1.996459864977909</v>
+        <v>1.328304748585162</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4974520612178532</v>
+        <v>0.2671009631684276</v>
       </c>
       <c r="J17" t="n">
-        <v>0.260674072995509</v>
+        <v>0.1969504542876322</v>
       </c>
     </row>
     <row r="18">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3606929925348348</v>
+        <v>0.6247494991151511</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9610790444027816</v>
+        <v>0.9691120116606691</v>
       </c>
       <c r="G18" t="n">
-        <v>39.20950324663149</v>
+        <v>21.16153146250692</v>
       </c>
       <c r="H18" t="n">
-        <v>1.571681519163091</v>
+        <v>1.327888406371089</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6393070074651648</v>
+        <v>0.3752505008848483</v>
       </c>
       <c r="J18" t="n">
-        <v>0.175886941847029</v>
+        <v>0.1689987745818129</v>
       </c>
     </row>
     <row r="19">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5863167938665474</v>
+        <v>0.7994657781278062</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9726047512955595</v>
+        <v>0.8708626171852279</v>
       </c>
       <c r="G19" t="n">
-        <v>1.423569349472762</v>
+        <v>1.555686410327085</v>
       </c>
       <c r="H19" t="n">
-        <v>3.16779292063764</v>
+        <v>2.432184376109216</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4136832061334524</v>
+        <v>0.2005342218721936</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.270353182336575</v>
+        <v>-0.1374642121021519</v>
       </c>
     </row>
     <row r="20">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3008617732409248</v>
+        <v>0.5506920649032213</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5023272652033608</v>
+        <v>0.690566545931355</v>
       </c>
       <c r="G20" t="n">
-        <v>1.180869914291796</v>
+        <v>1.437719179182189</v>
       </c>
       <c r="H20" t="n">
-        <v>1.212884731763456</v>
+        <v>1.35870801313593</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6991382267590757</v>
+        <v>0.4493079350967796</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4714905991729021</v>
+        <v>0.2734399728956277</v>
       </c>
     </row>
     <row r="21">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4159571865474357</v>
+        <v>0.6583024473820595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8120036869672337</v>
+        <v>0.8435137249257508</v>
       </c>
       <c r="G21" t="n">
-        <v>13.93798083679869</v>
+        <v>8.051645684005395</v>
       </c>
       <c r="H21" t="n">
-        <v>1.984119723854729</v>
+        <v>1.706260265205412</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5840428134525644</v>
+        <v>0.3416975526179407</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1256747862277852</v>
+        <v>0.1016581784584292</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4551507989580456</v>
+        <v>0.2387403661333964</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9715049999997875</v>
+        <v>0.923557584038505</v>
       </c>
       <c r="G22" t="n">
-        <v>1.958223858736609</v>
+        <v>1.313080171885294</v>
       </c>
       <c r="H22" t="n">
-        <v>1.863019591238757</v>
+        <v>1.76583376420188</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5448492010419542</v>
+        <v>0.7612596338666034</v>
       </c>
       <c r="J22" t="n">
-        <v>0.240025254602965</v>
+        <v>0.2775328590287059</v>
       </c>
     </row>
     <row r="23">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6487757085410866</v>
+        <v>0.3729122229960892</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9055897970061082</v>
+        <v>0.9490317403143482</v>
       </c>
       <c r="G23" t="n">
-        <v>1.352238165480069</v>
+        <v>1.00401568251989</v>
       </c>
       <c r="H23" t="n">
-        <v>4.48680342756215</v>
+        <v>3.156905725119581</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3512242914589132</v>
+        <v>0.6270877770039107</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1043443935132653</v>
+        <v>-0.1573207705598945</v>
       </c>
     </row>
     <row r="24">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3136726704959943</v>
+        <v>0.1639802958797358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5110139911325937</v>
+        <v>0.4811119263522355</v>
       </c>
       <c r="G24" t="n">
-        <v>1.179087642518431</v>
+        <v>0.7896892259702105</v>
       </c>
       <c r="H24" t="n">
-        <v>1.396566353245068</v>
+        <v>1.152978171864496</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6863273295040058</v>
+        <v>0.8360197041202643</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4009161403582251</v>
+        <v>0.4359716274695892</v>
       </c>
     </row>
     <row r="25">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4725330593317087</v>
+        <v>0.2585442950030739</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7960362627128298</v>
+        <v>0.7845670835683629</v>
       </c>
       <c r="G25" t="n">
-        <v>1.49651655557837</v>
+        <v>1.035595026791798</v>
       </c>
       <c r="H25" t="n">
-        <v>2.582129790681992</v>
+        <v>2.025239220395319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5274669406682911</v>
+        <v>0.7414557049969259</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1788656671493081</v>
+        <v>0.1853945719794667</v>
       </c>
     </row>
     <row r="26">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.4262774484348953</v>
+        <v>0.5123408292809031</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6323737751776504</v>
+        <v>0.6537308141166911</v>
       </c>
       <c r="G26" t="n">
-        <v>1.474575872723667</v>
+        <v>1.056412522169942</v>
       </c>
       <c r="H26" t="n">
-        <v>1.803217635280685</v>
+        <v>1.656888443057006</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5737225515651048</v>
+        <v>0.4876591707190969</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2752268297182786</v>
+        <v>0.2507492036254978</v>
       </c>
     </row>
     <row r="27">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6068991541334581</v>
+        <v>0.6283353190279293</v>
       </c>
       <c r="F27" t="n">
-        <v>1.039174651749637</v>
+        <v>1.043654365785246</v>
       </c>
       <c r="G27" t="n">
-        <v>1.783803716023701</v>
+        <v>1.191919490786232</v>
       </c>
       <c r="H27" t="n">
-        <v>1.748433340559826</v>
+        <v>1.827861440771213</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3931008458665421</v>
+        <v>0.3716646809720709</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1616580376455996</v>
+        <v>-0.166665757769505</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3241416229741054</v>
+        <v>0.3610128381069621</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6402489101443967</v>
+        <v>0.6257695520850403</v>
       </c>
       <c r="G28" t="n">
-        <v>1.465631031785974</v>
+        <v>1.142856372033322</v>
       </c>
       <c r="H28" t="n">
-        <v>1.505968614097116</v>
+        <v>1.390587228155659</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6758583770258945</v>
+        <v>0.6389871618930377</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4199936457820141</v>
+        <v>0.4331106063052739</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.4524394085141527</v>
+        <v>0.5005629954719316</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7705991123572281</v>
+        <v>0.7743849106623258</v>
       </c>
       <c r="G29" t="n">
-        <v>1.574670206844447</v>
+        <v>1.130396128329832</v>
       </c>
       <c r="H29" t="n">
-        <v>1.685873196645876</v>
+        <v>1.625112370661292</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5475605914858472</v>
+        <v>0.4994370045280683</v>
       </c>
       <c r="J29" t="n">
-        <v>0.177854145951564</v>
+        <v>0.1723980173870886</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4362454022439778</v>
+        <v>0.3857553831774813</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9566282380788117</v>
+        <v>0.9666757275313322</v>
       </c>
       <c r="G30" t="n">
-        <v>1.325571857305976</v>
+        <v>1.22112104091506</v>
       </c>
       <c r="H30" t="n">
-        <v>2.359185361681199</v>
+        <v>2.290707549691258</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5637545977560219</v>
+        <v>0.6142446168225185</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1498806372690697</v>
+        <v>0.1409518131026658</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.6725587938608708</v>
+        <v>0.6008838942751704</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9377887648530159</v>
+        <v>0.9898583219759891</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1594390694146</v>
+        <v>2.022043808909055</v>
       </c>
       <c r="H31" t="n">
-        <v>3.621069615914724</v>
+        <v>4.056795332572869</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3274412061391289</v>
+        <v>0.3991161057248294</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01763076852785805</v>
+        <v>-0.07413345379969671</v>
       </c>
     </row>
     <row r="32">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3374555700372137</v>
+        <v>0.3054128122597932</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4021131896218871</v>
+        <v>0.3818581540786746</v>
       </c>
       <c r="G32" t="n">
-        <v>1.216113609763017</v>
+        <v>1.102847134633596</v>
       </c>
       <c r="H32" t="n">
-        <v>1.141009619765741</v>
+        <v>1.001345634664049</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6625444299627861</v>
+        <v>0.6945871877402066</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4524187275841594</v>
+        <v>0.4800012054084</v>
       </c>
     </row>
     <row r="33">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.4820865887140209</v>
+        <v>0.4306840299041483</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7655100641845717</v>
+        <v>0.7794640678619987</v>
       </c>
       <c r="G33" t="n">
-        <v>1.567041512161198</v>
+        <v>1.448670661485903</v>
       </c>
       <c r="H33" t="n">
-        <v>2.373754865787221</v>
+        <v>2.449616172309392</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5179134112859791</v>
+        <v>0.5693159700958516</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1948895321084571</v>
+        <v>0.182273188237123</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.519322035019643</v>
+        <v>0.3504445388339655</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7680304692437058</v>
+        <v>0.7481019763211521</v>
       </c>
       <c r="G34" t="n">
-        <v>1.209121953674502</v>
+        <v>0.9862518749780999</v>
       </c>
       <c r="H34" t="n">
-        <v>3.948507973791311</v>
+        <v>3.470046694810637</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4806779649803569</v>
+        <v>0.6495554611660344</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3209162610543673</v>
+        <v>0.3385368061073855</v>
       </c>
     </row>
     <row r="35">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.7132085066029991</v>
+        <v>0.5169125444901839</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9201574521010432</v>
+        <v>0.9967543642338095</v>
       </c>
       <c r="G35" t="n">
-        <v>3.137676408552589</v>
+        <v>2.522071254142624</v>
       </c>
       <c r="H35" t="n">
-        <v>1.132504337587674</v>
+        <v>1.268854434120718</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2867914933970005</v>
+        <v>0.4830874555098158</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07687271919535366</v>
+        <v>2.858881994871609e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3611354750989211</v>
+        <v>0.2455927349781039</v>
       </c>
       <c r="F36" t="n">
-        <v>0.476180370458931</v>
+        <v>0.4821633982356355</v>
       </c>
       <c r="G36" t="n">
-        <v>1.158713816670107</v>
+        <v>0.9268223496435052</v>
       </c>
       <c r="H36" t="n">
-        <v>1.175010715615168</v>
+        <v>1.155776568411334</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6388645249010791</v>
+        <v>0.7544072650218963</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4360542382527427</v>
+        <v>0.4289684712484524</v>
       </c>
     </row>
     <row r="37">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5312220055738542</v>
+        <v>0.3709832727674178</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7214560972678932</v>
+        <v>0.742339912930199</v>
       </c>
       <c r="G37" t="n">
-        <v>1.835170726299065</v>
+        <v>1.478381826254741</v>
       </c>
       <c r="H37" t="n">
-        <v>2.085341008998051</v>
+        <v>1.964892565780897</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4687779944261454</v>
+        <v>0.6290167272325821</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2779477395008213</v>
+        <v>0.2558446220585954</v>
       </c>
     </row>
     <row r="38">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.4000805675677986</v>
+        <v>0.3241029523354146</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9570793712105878</v>
+        <v>0.9471401104708873</v>
       </c>
       <c r="G38" t="n">
-        <v>42.05959419244002</v>
+        <v>34.47154608891312</v>
       </c>
       <c r="H38" t="n">
-        <v>1.564380555577732</v>
+        <v>1.521202129549582</v>
       </c>
       <c r="I38" t="n">
-        <v>0.599919432432201</v>
+        <v>0.6758970476645851</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1793166107439088</v>
+        <v>0.1878394004266912</v>
       </c>
     </row>
     <row r="39">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6200500437995273</v>
+        <v>0.5188541975546739</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9296594468457089</v>
+        <v>0.98475612671104</v>
       </c>
       <c r="G39" t="n">
-        <v>1.297880685536861</v>
+        <v>1.330039894193687</v>
       </c>
       <c r="H39" t="n">
-        <v>3.013778743376658</v>
+        <v>3.181861376818806</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3799499562004726</v>
+        <v>0.481145802445326</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2142608137751325</v>
+        <v>-0.286224520008183</v>
       </c>
     </row>
     <row r="40">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3134046183374746</v>
+        <v>0.2628226605417717</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4677956751493855</v>
+        <v>0.4824052814702982</v>
       </c>
       <c r="G40" t="n">
-        <v>1.16054448351748</v>
+        <v>1.096059194805439</v>
       </c>
       <c r="H40" t="n">
-        <v>1.124382435712953</v>
+        <v>1.181923634888407</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6865953816625259</v>
+        <v>0.7371773394582287</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5078220333458909</v>
+        <v>0.4924509499549478</v>
       </c>
     </row>
     <row r="41">
@@ -1898,31 +1898,2911 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3685932701439531</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8047671728840752</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.29921505930409</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.961662380418932</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.631406729856047</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1313552767911516</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9717589358093345</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.454014088136865</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.239826609405866</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8755182680104343</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.050305813827705</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.06767290653258762</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6646306968956587</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.229369544765169</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2208246152905429</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8373026335718091</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.244563148909914</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1309927727212735</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.056956867266018e-13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6242415601694432</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.884474636440505e-07</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.470017618043528</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9999999999998943</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2845472846205318</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.681288087035583e-13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.944378461635218</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.929489190704594e-07</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.338941103919887</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9999999999998319</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.05568859737953202</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.164680812486782e-13</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8634317510078352</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.313403212489008e-07</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.243164625089307</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9999999999998835</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.2178106138358585</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.300975255596127e-13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8106839242708324</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.375789013211369e-07</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.350707782350907</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9999999999998699</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.148889767025619</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9609105943099024</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.171215755898769</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1460750691233155</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9221531847703112</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.813694698382029</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.0006639973611810568</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.592380691471618</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.013171635855848</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1933202362856585</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8251481568506107</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.332694030045549</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1129104360159309</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1.602696625852712e-13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8595136496876973</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.934548770856178e-07</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.2418615354813</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9999999999998397</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2400278813424019</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2.217287842870093e-13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9542913809362563</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7.849102103142658e-07</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.100983424533987</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9999999999997783</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0426286223433624</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1.400204260497878e-13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6453700285712205</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.799235663071088e-07</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.108630791512418</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.99999999999986</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2356810256149861</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1.740062909740228e-13</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8197250197317248</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.527628845689974e-07</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.483825250509235</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.999999999999826</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1727791764335832</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1.423011963806469e-13</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9865853690416035</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.321098022594113e-05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.352189388533242</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9999999999998577</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1540155928432601</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1.986317608483682e-13</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8098802455258568</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.771257949897838e-07</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.71654822789406</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9999999999998014</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.05781299736078749</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1.503873094053643e-13</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7537351958383262</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.886219535275741e-07</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.219286018508868</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9999999999998496</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2069788675047538</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1.637734222114598e-13</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8500669368019288</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.925575991486164e-06</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.42934121164539</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9999999999998361</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1010604876624086</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>RandomForest</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4598001410903073</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9602196236959245</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.975497656091192</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.795136518258151</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5401998589096926</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.248853413987878</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6457397031488875</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9123844081876149</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.363131205018854</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.112821924835471</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.3542602968511124</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.1126302540532211</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.3076096038193258</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5109854734215511</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.176391620538215</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.383077231380491</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.6923903961806743</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4009495729074234</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Y-All</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>0.4445117432349335</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.7848448310685608</v>
-      </c>
-      <c r="G41" t="n">
-        <v>14.83933978716479</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.900847244889114</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.5554882567650665</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.1576259434382221</v>
+      <c r="E65" t="n">
+        <v>0.4710498160195069</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7945298351016968</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.505006827216087</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.430345224824705</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.5289501839804928</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1790575776140265</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3901067560340416</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6228127280030411</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.48383324844212</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.506829611198341</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6098932439659583</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.286184890827008</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5663088382294121</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.017690533732751</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.480225532354942</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.654817607093376</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.4336911617705882</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.1376416720288844</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2673049574317954</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5853924187614273</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.327260793439051</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.222685532905109</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.7326950425682044</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4696885582888557</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.4079068505650831</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7419652268324065</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.430439858078705</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.461444250398943</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.592093149434917</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2060772590289928</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2968236581513965</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9929547006153805</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.100918678063251</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.434057338893686</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.7031763418486033</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1175986828456078</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4514782851099786</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.028531335299737</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.703967078275759</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.61851540115155</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.5485217148900212</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.1160990325578322</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.2258888103848928</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4425370844126027</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.017773026019188</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.198042009874096</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.7741111896151071</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3973711232856822</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3247302512154227</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8213410401092403</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.2742195941194</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.750204916639776</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.6752697487845772</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1329569245244859</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4770132904784601</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7737191258349028</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.135255288073403</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.636225208273922</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.5229867095215397</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3158864160908832</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6704520352266317</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9517829458121462</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.838556201048829</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.20413520492219</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3295479647733679</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.04514515349779391</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3293664246962596</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4735524055843316</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.112741008176915</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.221347820323428</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.6706335753037407</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4391665665740943</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.492277250133784</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.733018159077127</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.695517499099716</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.02056941117318</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.5077227498662156</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.266732712054257</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.4522076751635812</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9495795521534164</v>
+      </c>
+      <c r="G78" t="n">
+        <v>35.53920881815579</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.395342989070854</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.5477923248364185</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1857476102072675</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6772906103063026</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.890453397877887</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.334244538518654</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.690796934106125</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.3227093896936973</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.1630524179629871</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.3530549722686042</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.4933677455316945</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.175963025881956</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.110442554538662</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.6469450277313964</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4809171039664533</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4941844192461626</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7778002318543326</v>
+      </c>
+      <c r="G81" t="n">
+        <v>12.68313879418546</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.732194159238547</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.5058155807538374</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1678707654035777</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6456257080839246</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.024763864961719</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.031323483685486</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.029170097014809</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3543742919160752</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1983626874112494</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8073310752464706</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9077296090197008</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.5428453873719</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.904502471300074</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1926689247535293</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.1069538414202489</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5592096449372183</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6692977092822802</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.549299324263579</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.6488656850865</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.440790355062782</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.21535327430558</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.6707221427558711</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8672637277545666</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.707822731773655</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.860846084467127</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.3292778572441287</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.10225404009886</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6965004197013364</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7260383984376342</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.426779592812014</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.73474031054201</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.3034995802986636</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1678763850792506</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8589561252743816</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8939186026093058</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.514802560307736</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.666044349127926</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.1410438747256187</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0007187646719022389</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6152949501092423</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9069008219803609</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.824678803863956</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.614499484198742</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.3847050498907575</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.1784316520343752</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7235838316949869</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8422859410091</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.588753652327902</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.671761381289559</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.276416168305013</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1156756005951759</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6910040977212024</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9101528259462616</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.238412193143655</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.90992073426377</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.3089959022787971</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1911815796540947</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.884264180476836</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.8554874858070591</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.519092018094603</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.91406492540154</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1157358195231636</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.07167752453906706</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6519866379504158</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.460507987167558</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.3975219285512</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.07808321390458</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.348013362049584</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.3728990839420513</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7424183053828183</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.742049432973626</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.385008713263153</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.967356291189963</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.2575816946171817</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.2119193960450712</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7120473083309563</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8409468467687075</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.262610806198553</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.079083882175248</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.2879526916690436</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.2564444356998222</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8766782476497373</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9292821895583513</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.36635752655507</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.083128210623674</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.123321752350262</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.06771853144434659</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5927678861278451</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6651214744615055</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.281909036084707</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.241005658812605</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.4072321138721554</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.2122891663758678</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7271644807028467</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.8117835035961879</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.63695912294611</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.80107258387051</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.2728355192971529</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.1788173778400123</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6865420575693663</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9658194561410168</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20.1737068640923</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.326611456268693</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3134579424306332</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1718220990671837</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8353037300294797</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.8367473258631649</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.471890974418377</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.865610532720044</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1646962699705201</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.09290503342284451</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6148018339397624</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7341589279468603</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.314904909066532</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.312720541971792</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.3851981660602386</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2275754831584169</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7122158738462026</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.8455752366503472</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.653500915859067</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.501647510320177</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.2877841261537975</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.1021641829342521</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1085670418649574</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9792877041837673</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.099037721717236</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.811113495646481</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.8914329581350425</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.2339371144176631</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1331642910919328</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.092947714982615</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.797121557401637</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4.628737430604743</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.8668357089080672</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.3328227475999754</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0940223501952246</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4819717089374637</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.705332698831218</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.152580080566053</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9059776498047755</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4349636670642985</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1119178943840382</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8514023760346153</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8671639926500303</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.530810335605759</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.8880821056159617</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1120260112939952</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1584477622265228</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.5702969264681366</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.916175975100771</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.351320821182747</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.8415522377734772</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.3463740470861301</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2275034456596444</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.076690479652507</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.023225142787034</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.809828207924368</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.7724965543403557</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.2035957070728922</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1431598842869658</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6058333923421393</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9367886048629543</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.33539524082866</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.8568401157130341</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4511709249506888</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1763703640577111</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.7509402661542608</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9587299075835861</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.498848089978591</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.8236296359422889</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.1979830883213087</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.2557950250224</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.014951594425679</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.060836000278536</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.359375172783058</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.7442049749775999</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.09805087461278139</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3723898637803845</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.042393827053947</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.026476067907772</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5.498269242205655</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.6276101362196154</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.131141757173709</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.2334106704412855</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4221393654407827</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.041264311161419</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.040971573968638</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.7665893295587144</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4251479015591647</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2871985197480234</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.8264949289734694</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.376192126449241</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.96620532965245</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.7128014802519766</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.1306856729994126</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.2765008723028274</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.7522980252377676</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8578763609971652</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.478318159415008</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.7234991276971725</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.33482670774384</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.3708481194080062</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.037357463129826</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.851295079220236</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.270503212478908</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.6291518805919936</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.04070555748353222</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.2144932718577326</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.4690923593782113</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8731463188459715</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.170623683129032</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.7855067281422675</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4444486493964382</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2872807545228555</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.7529159492486016</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.194105919687791</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.973148351674316</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7127192454771444</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2461899332189153</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.2135396059570816</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9647432698268326</v>
+      </c>
+      <c r="G118" t="n">
+        <v>36.41971542065832</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.464077432925222</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.7864603940429182</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1727449151453095</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.3656615528175854</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9829873958174482</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.029760201507433</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.283713849268573</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.6343384471824145</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.2839143185451753</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1682477365721555</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.4988035620815544</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8379216497487875</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.196474341496567</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8317522634278447</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.4751979635837201</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.249149631782274</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8155114092419451</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12.76246575730486</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.981421874563454</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.750850368217726</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1213428533946177</v>
       </c>
     </row>
   </sheetData>
